--- a/t.xlsx
+++ b/t.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -379,11 +387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/t.xlsx
+++ b/t.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>JKHGIK</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41,12 +37,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF960000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,9 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,17 +368,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>A2*2</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -387,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
